--- a/spliced/falling/2023-03-25_17-55-15/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-15/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.1142318025231361</v>
+        <v>-0.06894293137722546</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7016296386718748</v>
+        <v>0.4565708637237548</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.02428189354638253</v>
+        <v>-0.01043561432096691</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1870265710684987</v>
+        <v>-0.1226312004857593</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3141374455557933</v>
+        <v>0.687206427256266</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.07030040708680932</v>
+        <v>-0.03962139785289762</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.2358618444866612</v>
+        <v>-0.1142318025231361</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1830220156245763</v>
+        <v>0.7016296386718748</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1438248223728607</v>
+        <v>-0.02428189354638253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.112385630607605</v>
+        <v>-0.1870265710684987</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2183843255043029</v>
+        <v>0.3141374455557933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.607810914516449</v>
+        <v>-0.07030040708680932</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.630127814080975</v>
+        <v>-0.2358618444866612</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8663087487220751</v>
+        <v>-0.1830220156245763</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.891578257083879</v>
+        <v>-0.1438248223728607</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-3.291155205832588</v>
+        <v>1.112385630607605</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5995133320490518</v>
+        <v>0.2183843255043029</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.225110616948866</v>
+        <v>0.607810914516449</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.800487955411278</v>
+        <v>-1.630127814080975</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.09544769922892193</v>
+        <v>0.8663087487220751</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.274875779946644</v>
+        <v>-6.891578257083879</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1234287155999069</v>
+        <v>-3.291155205832588</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4942069583468969</v>
+        <v>0.5995133320490518</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.08613203631506727</v>
+        <v>-2.225110616948866</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.5099027951558444</v>
+        <v>-0.800487955411278</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.4140478637483376</v>
+        <v>-0.09544769922892193</v>
       </c>
       <c r="C10" t="n">
-        <v>1.050213085280524</v>
+        <v>-1.274875779946644</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.6214535633722948</v>
+        <v>0.1234287155999069</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1743511259555818</v>
+        <v>-0.4942069583468969</v>
       </c>
       <c r="C11" t="n">
-        <v>0.645531852419179</v>
+        <v>-0.08613203631506727</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1061547994613655</v>
+        <v>-0.5099027951558444</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01274332404136612</v>
+        <v>-0.4140478637483376</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05855822087162051</v>
+        <v>1.050213085280524</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.5697166919708249</v>
+        <v>-0.6214535633722948</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4329677091704473</v>
+        <v>-0.1743511259555818</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2033163110415139</v>
+        <v>0.645531852419179</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.08963084220886</v>
+        <v>-0.1061547994613655</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7141014933586107</v>
+        <v>0.01274332404136612</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3845396637916556</v>
+        <v>0.05855822087162051</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9240185154808892</v>
+        <v>0.5697166919708249</v>
       </c>
       <c r="B15" t="n">
-        <v>1.187182711230384</v>
+        <v>0.4329677091704473</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07666358682844371</v>
+        <v>0.2033163110415139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4859263300895685</v>
+        <v>1.08963084220886</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0002714759773692066</v>
+        <v>0.7141014933586107</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3303932597239817</v>
+        <v>0.3845396637916556</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1978694349527355</v>
+        <v>0.9240185154808892</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.3554217517375946</v>
+        <v>1.187182711230384</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06490443150202541</v>
+        <v>0.07666358682844371</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.01489832335048191</v>
+        <v>0.4859263300895685</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2175528672006401</v>
+        <v>-0.0002714759773692066</v>
       </c>
       <c r="C18" t="n">
-        <v>0.293826182683309</v>
+        <v>-0.3303932597239817</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.1349672807587516</v>
+        <v>0.1978694349527355</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.006057749191920411</v>
+        <v>-0.3554217517375946</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07683327462938183</v>
+        <v>0.06490443150202541</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.168751522898674</v>
+        <v>-0.01489832335048191</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04469497253497444</v>
+        <v>-0.2175528672006401</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.09234245866537093</v>
+        <v>0.293826182683309</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.1727900256713232</v>
+        <v>-0.1349672807587516</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.1038810287912686</v>
+        <v>-0.006057749191920411</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06023810141616398</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.09510832776625952</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.07622240483760839</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.01844473597076204</v>
+        <v>0.07683327462938183</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-55-15/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-15/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.06894293137722546</v>
+        <v>0.01617096064405302</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4565708637237548</v>
+        <v>-0.001510194632121166</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.01043561432096691</v>
+        <v>0.006719517832001004</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1226312004857593</v>
+        <v>0.009587190579622892</v>
       </c>
       <c r="B3" t="n">
-        <v>0.687206427256266</v>
+        <v>-0.01432139695518542</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.03962139785289762</v>
+        <v>0.07086037078665362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.1142318025231361</v>
+        <v>0.0104356142692267</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7016296386718748</v>
+        <v>0.1928298026323316</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.02428189354638253</v>
+        <v>0.05640322466691333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.1870265710684987</v>
+        <v>-0.06894293137722546</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3141374455557933</v>
+        <v>0.4565708637237548</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.07030040708680932</v>
+        <v>-0.01043561432096691</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.2358618444866612</v>
+        <v>-0.1226312004857593</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1830220156245763</v>
+        <v>0.687206427256266</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1438248223728607</v>
+        <v>-0.03962139785289762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.112385630607605</v>
+        <v>-0.1142318025231361</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2183843255043029</v>
+        <v>0.7016296386718748</v>
       </c>
       <c r="C7" t="n">
-        <v>0.607810914516449</v>
+        <v>-0.02428189354638253</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.630127814080975</v>
+        <v>-0.1870265710684987</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8663087487220751</v>
+        <v>0.3141374455557933</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.891578257083879</v>
+        <v>-0.07030040708680932</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-3.291155205832588</v>
+        <v>-0.2358618444866612</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5995133320490518</v>
+        <v>-0.1830220156245763</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.225110616948866</v>
+        <v>-0.1438248223728607</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.800487955411278</v>
+        <v>1.112385630607605</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.09544769922892193</v>
+        <v>0.2183843255043029</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.274875779946644</v>
+        <v>0.607810914516449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1234287155999069</v>
+        <v>-1.630127814080975</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4942069583468969</v>
+        <v>0.8663087487220751</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.08613203631506727</v>
+        <v>-6.891578257083879</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.5099027951558444</v>
+        <v>-3.291155205832588</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.4140478637483376</v>
+        <v>0.5995133320490518</v>
       </c>
       <c r="C12" t="n">
-        <v>1.050213085280524</v>
+        <v>-2.225110616948866</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.6214535633722948</v>
+        <v>-0.800487955411278</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1743511259555818</v>
+        <v>-0.09544769922892193</v>
       </c>
       <c r="C13" t="n">
-        <v>0.645531852419179</v>
+        <v>-1.274875779946644</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.1061547994613655</v>
+        <v>0.1234287155999069</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01274332404136612</v>
+        <v>-0.4942069583468969</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05855822087162051</v>
+        <v>-0.08613203631506727</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.5697166919708249</v>
+        <v>-0.5099027951558444</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4329677091704473</v>
+        <v>-0.4140478637483376</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2033163110415139</v>
+        <v>1.050213085280524</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.08963084220886</v>
+        <v>-0.6214535633722948</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7141014933586107</v>
+        <v>-0.1743511259555818</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3845396637916556</v>
+        <v>0.645531852419179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9240185154808892</v>
+        <v>-0.1061547994613655</v>
       </c>
       <c r="B17" t="n">
-        <v>1.187182711230384</v>
+        <v>0.01274332404136612</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07666358682844371</v>
+        <v>0.05855822087162051</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4859263300895685</v>
+        <v>0.5697166919708249</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0002714759773692066</v>
+        <v>0.4329677091704473</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3303932597239817</v>
+        <v>0.2033163110415139</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1978694349527355</v>
+        <v>1.08963084220886</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.3554217517375946</v>
+        <v>0.7141014933586107</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06490443150202541</v>
+        <v>0.3845396637916556</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.01489832335048191</v>
+        <v>0.9240185154808892</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.2175528672006401</v>
+        <v>1.187182711230384</v>
       </c>
       <c r="C20" t="n">
-        <v>0.293826182683309</v>
+        <v>0.07666358682844371</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.4859263300895685</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.0002714759773692066</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.3303932597239817</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.1978694349527355</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.3554217517375946</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.06490443150202541</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.01489832335048191</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.2175528672006401</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.293826182683309</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>-0.1349672807587516</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>-0.006057749191920411</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>0.07683327462938183</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.168751522898674</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.04469497253497444</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.09234245866537093</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.1727900256713232</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.1038810287912686</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.06023810141616398</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.09510832776625952</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.07622240483760839</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01844473597076204</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.0361937656998634</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0348193198442459</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.0697913542389869</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.03700825323661167</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.04744386838542084</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.007177666657500789</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.0347344755298561</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.06149377011590525</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0545706277092296</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.01959859269360693</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.00315613796313606</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01527163075904057</v>
       </c>
     </row>
   </sheetData>
